--- a/Simulations by Sheryl/Simulation with pi_10.5_mu1_dim10 table.xlsx
+++ b/Simulations by Sheryl/Simulation with pi_10.5_mu1_dim10 table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AUROC-vs-AUPRC\Simulations by Sheryl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9157E980-F3ED-4632-9716-3740E3D0671E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E5F68-BB7F-4844-8632-507025837B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation with pi_10.5_mu1_dim" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -917,11 +917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>0.90200000000000002</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="C10" s="1">
-        <v>0.90900000000000003</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
